--- a/数据整理/stocks/A股/上证主板/603337-杰克股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603337-杰克股份.xlsx
@@ -451,631 +451,851 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9940</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8773</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8570</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>160910</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>大成创新成长混合(LOF)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>88.25</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.32</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8052</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>470098</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>汇添富逆向投资混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>91.31</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.68</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6683</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>090007</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>大成策略回报混合</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>63.13</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>6.47</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5299</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4250</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>61.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000628</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成高新技术产业股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011066</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成高新技术产业股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>090013</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>61.32</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001740</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009230</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华安和混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009231</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华安和混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009667</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009668</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008871</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8.13</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008872</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>8.13</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009069</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成睿鑫股票A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009070</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>大成睿鑫股票C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005444</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>51.25</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008269</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>大成睿享混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>10.01</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008270</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>大成睿享混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>10.01</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008271</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>大成优势企业混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008272</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>大成优势企业混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008313</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>光大保德信研究精选混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>94.75</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1085,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,15 +1326,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005545</t>
+          <t>360006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银改革红利灵活配置混合</t>
+          <t>光大保德信新增长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>79.76</t>
+          <t>23.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0574</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>360006</t>
+          <t>470098</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>光大保德信新增长混合</t>
+          <t>汇添富逆向投资混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.85</t>
+          <t>22.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9249</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000120</t>
+          <t>160910</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银美丽中国混合</t>
+          <t>大成创新成长混合(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>80.16</t>
+          <t>15.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8563</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000123</t>
+          <t>001740</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富实业债债券C</t>
+          <t>光大保德信中国制造2025灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>80.16</t>
+          <t>11.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6000</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005802</t>
+          <t>008269</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富智能制造股票</t>
+          <t>大成睿享混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5819</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005825</t>
+          <t>090007</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>申万菱信智能驱动股票</t>
+          <t>大成策略回报混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>82.27</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>67.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5582</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000591</t>
+          <t>009069</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中银健康生活混合</t>
+          <t>大成睿鑫股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>79.14</t>
+          <t>11.40</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5153</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000649</t>
+          <t>860016</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长城久鑫灵活配置混合</t>
+          <t>光大阳光启明星创新驱动主题混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>9.28</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>470098</t>
+          <t>005802</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富逆向投资混合</t>
+          <t>汇添富智能制造股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>88.29</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3648</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007113</t>
+          <t>001127</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>永赢高端制造混合A</t>
+          <t>中银宏观策略灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2666</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007114</t>
+          <t>007113</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>永赢高端制造混合C</t>
+          <t>永赢高端制造混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>93.72</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>4.54</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001127</t>
+          <t>008271</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中银宏观策略灵活配置混合</t>
+          <t>大成优势企业混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>79.75</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1995</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>090007</t>
+          <t>860052</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大成策略回报混合</t>
+          <t>光大阳光启明星创新驱动主题混合B</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>67.28</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.94</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1490,25 +1850,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>090013</t>
+          <t>009499</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大成竞争优势混合</t>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>67.57</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001707</t>
+          <t>860053</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>诺安高端制造股票</t>
+          <t>光大阳光启明星创新驱动主题混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001740</t>
+          <t>090013</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
+          <t>大成竞争优势混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>160910</t>
+          <t>009667</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>大成创新成长混合(LOF)</t>
+          <t>鹏华安庆混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>90.73</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002694</t>
+          <t>001707</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中银新蓝筹灵活配置混合</t>
+          <t>诺安高端制造股票</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>79.20</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009069</t>
+          <t>009230</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>大成睿鑫股票A</t>
+          <t>鹏华安和混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>87.53</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009070</t>
+          <t>005825</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>大成睿鑫股票C</t>
+          <t>申万菱信智能驱动股票</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>87.53</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008269</t>
+          <t>860006</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>大成睿享混合A</t>
+          <t>光大阳光优选一年持有混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>82.62</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1724,15 +2164,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>82.62</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>8.15</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>008271</t>
+          <t>000123</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>大成优势企业混合A</t>
+          <t>汇添富实业债债券C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>86.72</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1770,25 +2230,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>008272</t>
+          <t>009070</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>大成优势企业混合C</t>
+          <t>大成睿鑫股票C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>86.72</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1808,15 +2278,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>92.57</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>3.61</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>009667</t>
+          <t>009755</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>鹏华安庆混合A</t>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>36.07</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>009668</t>
+          <t>008272</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鹏华安庆混合C</t>
+          <t>大成优势企业混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>36.07</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>009499</t>
+          <t>000591</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>景顺长城安鑫回报一年持有期混合A</t>
+          <t>中银健康生活混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>29.62</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>5</v>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>009755</t>
+          <t>000120</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>景顺长城安鑫回报一年持有期混合C</t>
+          <t>中银美丽中国混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>29.62</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>5</v>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>860006</t>
+          <t>005545</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>光大阳光优选一年持有混合A</t>
+          <t>中银改革红利灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>88.04</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>10</v>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -1966,25 +2496,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>860055</t>
+          <t>007114</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>光大阳光优选一年持有混合B</t>
+          <t>永赢高端制造混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>88.04</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>860056</t>
+          <t>002694</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>光大阳光优选一年持有混合C</t>
+          <t>中银新蓝筹灵活配置混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>88.04</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>10</v>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>860016</t>
+          <t>009231</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>光大阳光启明星创新驱动主题混合A</t>
+          <t>鹏华安和混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>5</v>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>860052</t>
+          <t>000649</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>光大阳光启明星创新驱动主题混合B</t>
+          <t>长城久鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>5</v>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>860053</t>
+          <t>009668</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>光大阳光启明星创新驱动主题混合C</t>
+          <t>鹏华安庆混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>5</v>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -2106,26 +2686,30 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>009230</t>
+          <t>860055</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>鹏华安和混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>33.29</t>
-        </is>
-      </c>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>8</v>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -2134,26 +2718,30 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>009231</t>
+          <t>860056</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>鹏华安和混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>33.29</t>
-        </is>
-      </c>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>8</v>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603337-杰克股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603337-杰克股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2694,7 +2695,6 @@
           <t>光大阳光优选一年持有混合B</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>88.04</t>
@@ -2726,7 +2726,6 @@
           <t>光大阳光优选一年持有混合C</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>88.04</t>
@@ -2742,6 +2741,708 @@
       </c>
       <c r="H38" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7878</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6337</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3876</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3678</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010534</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>71.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2653</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010535</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>39.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603337-杰克股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603337-杰克股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3448,4 +3449,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6901</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6850</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2343</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603337-杰克股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603337-杰克股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3961,4 +3962,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603337-杰克股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603337-杰克股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3970,7 +3971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3981,17 +3982,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4001,14 +4022,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.37</v>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8062</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4017,14 +4060,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.05</v>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>58.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6814</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4033,14 +4098,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.01</v>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5544</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -4049,13 +4136,607 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4830</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4731</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>42.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3934</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2713</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2392</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1995</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>42.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>21</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603337-杰克股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603337-杰克股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4635,7 +4636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4646,17 +4647,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4666,14 +4687,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.44</v>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6627</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -4682,14 +4725,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.37</v>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6545</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4698,14 +4763,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.05</v>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6000</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4714,14 +4801,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>37</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.01</v>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3079</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -4730,13 +4839,547 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2437</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009627</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009628</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>21</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603337-杰克股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603337-杰克股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5262,7 +5263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5273,17 +5274,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5293,14 +5314,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.28</v>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4377</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -5309,14 +5352,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.44</v>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3529</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -5325,14 +5390,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.37</v>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3444</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -5341,14 +5428,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.05</v>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -5357,14 +5466,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>37</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.01</v>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -5373,13 +5504,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011618</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>37</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>21</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603337-杰克股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603337-杰克股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>1.54</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>3.28</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>7.44</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>2.37</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>3.05</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>8.01</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>37</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>21</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6.4</v>
       </c>
     </row>
@@ -600,6 +617,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成创新成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4700</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3386</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红优享红利混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3285</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>61.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2762</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成投资严选六月持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011618</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成投资严选六月持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>65.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -997,7 +1640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1623,7 +2266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2287,7 +2930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2799,7 +3442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3501,7 +4144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4949,7 +5592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603337-杰克股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603337-杰克股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>1.54</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>3.28</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>7.44</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>2.37</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>3.05</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>8.01</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,884 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>37</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>21</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>6.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9940</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8773</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8570</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8052</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6683</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5299</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4250</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>61.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1488,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成创新成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5492</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3515</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2608</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1962</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013853</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成匠心卓越三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015780</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成投资严选六月持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011048</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘恒新混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013854</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成匠心卓越三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>68.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011049</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘恒新混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>72.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成投资严选六月持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015781</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1242,7 +2853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1640,7 +3251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2266,7 +3877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2930,7 +4541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3442,7 +5053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4144,7 +5755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5590,858 +7201,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008269</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成睿享混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.93</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10.01</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9940</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000628</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成高新技术产业股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20.74</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8773</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009069</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成睿鑫股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18.47</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8570</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160910</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成创新成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>18.64</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8052</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>470098</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富逆向投资混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>18.16</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6683</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>090007</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成策略回报混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>63.13</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5299</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001740</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>11.58</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4250</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008271</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成优势企业混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2096</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008313</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>光大保德信研究精选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.75</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2008</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008871</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>8.13</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1902</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>090013</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>61.32</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1411</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011066</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>大成高新技术产业股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1045</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009230</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华安和混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1041</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009667</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0983</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008270</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>大成睿享混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>10.01</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0651</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005444</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>51.25</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0388</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009070</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>大成睿鑫股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0357</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008272</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>大成优势企业混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009231</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>鹏华安和混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009668</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008872</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>8.13</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0089</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>